--- a/Code/Results/Cases/Case_0_116/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_116/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0958824874560662</v>
+        <v>0.1040162398185203</v>
       </c>
       <c r="D2">
-        <v>0.6214471049183032</v>
+        <v>0.1563759751366547</v>
       </c>
       <c r="E2">
-        <v>0.1740220143332074</v>
+        <v>0.06340302046016433</v>
       </c>
       <c r="F2">
-        <v>7.934451269912358</v>
+        <v>5.606357340710986</v>
       </c>
       <c r="G2">
-        <v>0.0006864730680855175</v>
+        <v>0.002597308631189735</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>6.377846450478074</v>
+        <v>3.939253232387301</v>
       </c>
       <c r="J2">
-        <v>0.0478368145391066</v>
+        <v>0.07528521835414992</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>7.043491037827067</v>
+        <v>3.144960152179095</v>
       </c>
       <c r="N2">
-        <v>2.490489653559649</v>
+        <v>1.433860535331263</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.08268971239739642</v>
+        <v>0.1034179608638652</v>
       </c>
       <c r="D3">
-        <v>0.5197305102595919</v>
+        <v>0.1359955768662928</v>
       </c>
       <c r="E3">
-        <v>0.149803330053885</v>
+        <v>0.05741139501736825</v>
       </c>
       <c r="F3">
-        <v>6.747594459673337</v>
+        <v>5.463541721084795</v>
       </c>
       <c r="G3">
-        <v>0.0007124796229556176</v>
+        <v>0.002610357156766684</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.399526215262739</v>
+        <v>3.809128486789888</v>
       </c>
       <c r="J3">
-        <v>0.04631948620229664</v>
+        <v>0.07507091591273607</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>6.01842406632025</v>
+        <v>2.919836584983898</v>
       </c>
       <c r="N3">
-        <v>2.260367362466837</v>
+        <v>1.359489484099612</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.07549313606212138</v>
+        <v>0.1031480886666429</v>
       </c>
       <c r="D4">
-        <v>0.4612917752064618</v>
+        <v>0.1235491552488384</v>
       </c>
       <c r="E4">
-        <v>0.1355576891955543</v>
+        <v>0.05371803391608765</v>
       </c>
       <c r="F4">
-        <v>6.079974278634808</v>
+        <v>5.38116670960045</v>
       </c>
       <c r="G4">
-        <v>0.0007282336890990226</v>
+        <v>0.002618754821234998</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4.847208942319753</v>
+        <v>3.733041349383683</v>
       </c>
       <c r="J4">
-        <v>0.04540180654833748</v>
+        <v>0.0749618873699518</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>5.416018132584099</v>
+        <v>2.782910756946421</v>
       </c>
       <c r="N4">
-        <v>2.120819032629214</v>
+        <v>1.314299558801338</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0727411327752634</v>
+        <v>0.1030622387928446</v>
       </c>
       <c r="D5">
-        <v>0.4382533480810196</v>
+        <v>0.1184921867767059</v>
       </c>
       <c r="E5">
-        <v>0.1298704064723566</v>
+        <v>0.05220908582172612</v>
       </c>
       <c r="F5">
-        <v>5.820066270283007</v>
+        <v>5.348907783197404</v>
       </c>
       <c r="G5">
-        <v>0.0007346350724695034</v>
+        <v>0.002622274519818062</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4.631724794816648</v>
+        <v>3.702971898097275</v>
       </c>
       <c r="J5">
-        <v>0.04503205812424227</v>
+        <v>0.07492317334317278</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>5.175781630402042</v>
+        <v>2.727430839532161</v>
       </c>
       <c r="N5">
-        <v>2.064343392251033</v>
+        <v>1.296005556872615</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07229393878600376</v>
+        <v>0.1030494295262372</v>
       </c>
       <c r="D6">
-        <v>0.4344689990025188</v>
+        <v>0.1176533366563604</v>
       </c>
       <c r="E6">
-        <v>0.1289322115204676</v>
+        <v>0.05195828554291282</v>
       </c>
       <c r="F6">
-        <v>5.777564032050805</v>
+        <v>5.343629538100799</v>
       </c>
       <c r="G6">
-        <v>0.0007356977628724292</v>
+        <v>0.002622864873489694</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.596460007461417</v>
+        <v>3.69803484748968</v>
       </c>
       <c r="J6">
-        <v>0.04497093387456275</v>
+        <v>0.07491709144460046</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>5.136169960517748</v>
+        <v>2.718237430210564</v>
       </c>
       <c r="N6">
-        <v>2.054988019632447</v>
+        <v>1.292975236356909</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.07545534287632449</v>
+        <v>0.1031468336836383</v>
       </c>
       <c r="D7">
-        <v>0.4609781939350626</v>
+        <v>0.1234808966867718</v>
       </c>
       <c r="E7">
-        <v>0.1354805550840119</v>
+        <v>0.05369769970002025</v>
       </c>
       <c r="F7">
-        <v>6.076423513176906</v>
+        <v>5.380726386917217</v>
       </c>
       <c r="G7">
-        <v>0.000728320055399275</v>
+        <v>0.002618801893214469</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>4.844266941977082</v>
+        <v>3.732632057500865</v>
       </c>
       <c r="J7">
-        <v>0.04539680211310326</v>
+        <v>0.07496134205643656</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>5.412758711146211</v>
+        <v>2.782161257088944</v>
       </c>
       <c r="N7">
-        <v>2.120055856078608</v>
+        <v>1.31405234578483</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.09111356867747133</v>
+        <v>0.1037894870724472</v>
       </c>
       <c r="D8">
-        <v>0.5853785971339107</v>
+        <v>0.1493337245208011</v>
       </c>
       <c r="E8">
-        <v>0.1655143361146969</v>
+        <v>0.06133996911027495</v>
       </c>
       <c r="F8">
-        <v>7.510305764210301</v>
+        <v>5.55599512699132</v>
       </c>
       <c r="G8">
-        <v>0.0006955090744577457</v>
+        <v>0.002601728029317909</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>6.028692615553382</v>
+        <v>3.893582370239926</v>
       </c>
       <c r="J8">
-        <v>0.04731121482797818</v>
+        <v>0.07520667243097279</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>6.683377237488372</v>
+        <v>3.067062134008268</v>
       </c>
       <c r="N8">
-        <v>2.410749541549109</v>
+        <v>1.408120137765792</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1321473777939985</v>
+        <v>0.1058411932937702</v>
       </c>
       <c r="D9">
-        <v>0.8771152116132441</v>
+        <v>0.200652475904775</v>
       </c>
       <c r="E9">
-        <v>0.2320620831674418</v>
+        <v>0.07622305992686762</v>
       </c>
       <c r="F9">
-        <v>11.02310137678398</v>
+        <v>5.94312752309321</v>
       </c>
       <c r="G9">
-        <v>0.0006270947008595822</v>
+        <v>0.002571281448740456</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>8.908356146675828</v>
+        <v>4.240445675180183</v>
       </c>
       <c r="J9">
-        <v>0.05113375790765318</v>
+        <v>0.07586481423160052</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>9.492796865343593</v>
+        <v>3.636512385282828</v>
       </c>
       <c r="N9">
-        <v>2.997294085354071</v>
+        <v>1.596274709011055</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1766561032782334</v>
+        <v>0.1078571353104962</v>
       </c>
       <c r="D10">
-        <v>1.161564102679904</v>
+        <v>0.2388637426395235</v>
       </c>
       <c r="E10">
-        <v>0.2926549513807615</v>
+        <v>0.08711209890235239</v>
       </c>
       <c r="F10">
-        <v>14.57688724956603</v>
+        <v>6.255866308602549</v>
       </c>
       <c r="G10">
-        <v>0.0005683397716999428</v>
+        <v>0.002550725738860195</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.80155073975868</v>
+        <v>4.515798889556351</v>
       </c>
       <c r="J10">
-        <v>0.05389872400029461</v>
+        <v>0.07645379713208911</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>12.01261552198014</v>
+        <v>4.062124323232496</v>
       </c>
       <c r="N10">
-        <v>3.44288249224644</v>
+        <v>1.736680449797461</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.20471895338693</v>
+        <v>0.1088905950145147</v>
       </c>
       <c r="D11">
-        <v>1.33024666678827</v>
+        <v>0.2563864584628277</v>
       </c>
       <c r="E11">
-        <v>0.3269637826686775</v>
+        <v>0.09205994204373269</v>
       </c>
       <c r="F11">
-        <v>16.71781075723555</v>
+        <v>6.404705072715899</v>
       </c>
       <c r="G11">
-        <v>0.0005363064607325858</v>
+        <v>0.002541760059101651</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.53817670803494</v>
+        <v>4.64585249908842</v>
       </c>
       <c r="J11">
-        <v>0.055117879416823</v>
+        <v>0.07674410726816916</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>13.40827517799985</v>
+        <v>4.257476107315995</v>
       </c>
       <c r="N11">
-        <v>3.650147167678341</v>
+        <v>1.801011256919026</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2175956616569721</v>
+        <v>0.1092991808392298</v>
       </c>
       <c r="D12">
-        <v>1.405574411623178</v>
+        <v>0.2630444509061931</v>
       </c>
       <c r="E12">
-        <v>0.3419530739379226</v>
+        <v>0.09393307646472238</v>
       </c>
       <c r="F12">
-        <v>17.67804404343383</v>
+        <v>6.46204668632015</v>
       </c>
       <c r="G12">
-        <v>0.00052259033797187</v>
+        <v>0.002538419730409913</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.31593532359909</v>
+        <v>4.695817855553088</v>
       </c>
       <c r="J12">
-        <v>0.05557149075454859</v>
+        <v>0.07685721156074976</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.008248195454</v>
+        <v>4.331713590831072</v>
       </c>
       <c r="N12">
-        <v>3.729427986198175</v>
+        <v>1.82543632773934</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2146848557432861</v>
+        <v>0.1092104097952529</v>
       </c>
       <c r="D13">
-        <v>1.38864806215463</v>
+        <v>0.2616094930231156</v>
       </c>
       <c r="E13">
-        <v>0.3386014573261278</v>
+        <v>0.0935296809849433</v>
       </c>
       <c r="F13">
-        <v>17.46213851311677</v>
+        <v>6.449653012126191</v>
       </c>
       <c r="G13">
-        <v>0.0005256421754642399</v>
+        <v>0.00253913670349839</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.14111226571697</v>
+        <v>4.685024589697548</v>
       </c>
       <c r="J13">
-        <v>0.05547414902394365</v>
+        <v>0.07683271230224875</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13.87467675182316</v>
+        <v>4.315713370549389</v>
       </c>
       <c r="N13">
-        <v>3.712316186035224</v>
+        <v>1.820173113934743</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.205720801936252</v>
+        <v>0.1089238612322561</v>
       </c>
       <c r="D14">
-        <v>1.336150180711712</v>
+        <v>0.2569337503415738</v>
       </c>
       <c r="E14">
-        <v>0.3281454846329197</v>
+        <v>0.09221405429616425</v>
       </c>
       <c r="F14">
-        <v>16.79299965298605</v>
+        <v>6.409402766728533</v>
       </c>
       <c r="G14">
-        <v>0.0005352188616836198</v>
+        <v>0.002541484154027273</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.59910026833276</v>
+        <v>4.649948650532593</v>
       </c>
       <c r="J14">
-        <v>0.05515536119844455</v>
+        <v>0.07675334916805099</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13.4558121990674</v>
+        <v>4.263578348052619</v>
       </c>
       <c r="N14">
-        <v>3.656652998864899</v>
+        <v>1.803019441096126</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2005827117678933</v>
+        <v>0.1087506018784978</v>
       </c>
       <c r="D15">
-        <v>1.305793076851614</v>
+        <v>0.2540727272294419</v>
       </c>
       <c r="E15">
-        <v>0.3220558535954083</v>
+        <v>0.09140813827539773</v>
       </c>
       <c r="F15">
-        <v>16.40650961037954</v>
+        <v>6.384876949166767</v>
       </c>
       <c r="G15">
-        <v>0.0005408348934622271</v>
+        <v>0.002542929150733682</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.28589363870029</v>
+        <v>4.628557817467566</v>
       </c>
       <c r="J15">
-        <v>0.05495902125833751</v>
+        <v>0.07670514837393938</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>13.21042888217588</v>
+        <v>4.23167862777774</v>
       </c>
       <c r="N15">
-        <v>3.622665063978872</v>
+        <v>1.792520658006282</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.175047169227895</v>
+        <v>0.1077919807532339</v>
       </c>
       <c r="D16">
-        <v>1.151679297507258</v>
+        <v>0.237721612973786</v>
       </c>
       <c r="E16">
-        <v>0.290609922932056</v>
+        <v>0.08678865798827218</v>
       </c>
       <c r="F16">
-        <v>14.45200336558281</v>
+        <v>6.246274517817483</v>
       </c>
       <c r="G16">
-        <v>0.0005702768022592952</v>
+        <v>0.002551319366372429</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.70012490629964</v>
+        <v>4.507398375940568</v>
       </c>
       <c r="J16">
-        <v>0.05381801682824872</v>
+        <v>0.07643527091642</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>11.92857656611591</v>
+        <v>4.049393622308571</v>
       </c>
       <c r="N16">
-        <v>3.429440801384771</v>
+        <v>1.732485380812335</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1618473237747224</v>
+        <v>0.1072340592569816</v>
       </c>
       <c r="D17">
-        <v>1.069578443304977</v>
+        <v>0.2277282966244059</v>
       </c>
       <c r="E17">
-        <v>0.2734648092339711</v>
+        <v>0.08395352505558407</v>
       </c>
       <c r="F17">
-        <v>13.4179895842567</v>
+        <v>6.162953892550092</v>
       </c>
       <c r="G17">
-        <v>0.0005866393094035412</v>
+        <v>0.002556564721799951</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.85972696103909</v>
+        <v>4.434318095053129</v>
       </c>
       <c r="J17">
-        <v>0.05310600376919794</v>
+        <v>0.07627540764292462</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>11.2208374961242</v>
+        <v>3.938021338983305</v>
       </c>
       <c r="N17">
-        <v>3.312167786760085</v>
+        <v>1.695772150451774</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1548963415679907</v>
+        <v>0.1069240824781588</v>
       </c>
       <c r="D18">
-        <v>1.025567232518824</v>
+        <v>0.2219934571928945</v>
       </c>
       <c r="E18">
-        <v>0.2641520220546809</v>
+        <v>0.08232228215242543</v>
       </c>
       <c r="F18">
-        <v>12.86638848925469</v>
+        <v>6.115646549049416</v>
       </c>
       <c r="G18">
-        <v>0.0005956201989491359</v>
+        <v>0.002559618007154014</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.41093010474088</v>
+        <v>4.392733782808733</v>
       </c>
       <c r="J18">
-        <v>0.05269303812587012</v>
+        <v>0.07618556781029895</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>10.83425319468165</v>
+        <v>3.874125856244007</v>
       </c>
       <c r="N18">
-        <v>3.245134931062921</v>
+        <v>1.674699020272158</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1526358554327771</v>
+        <v>0.1068209911244651</v>
       </c>
       <c r="D19">
-        <v>1.011129396012535</v>
+        <v>0.2200539103855306</v>
       </c>
       <c r="E19">
-        <v>0.2610776928298222</v>
+        <v>0.08176986793256447</v>
       </c>
       <c r="F19">
-        <v>12.6858963161917</v>
+        <v>6.099733945331764</v>
       </c>
       <c r="G19">
-        <v>0.0005985996482433809</v>
+        <v>0.002560658049425804</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>10.26399855749227</v>
+        <v>4.378730435754477</v>
       </c>
       <c r="J19">
-        <v>0.05255271787450511</v>
+        <v>0.07615551331267412</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>10.70633447713857</v>
+        <v>3.852519568866398</v>
       </c>
       <c r="N19">
-        <v>3.222506806783372</v>
+        <v>1.667571518578313</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1631816742424093</v>
+        <v>0.1072923167090067</v>
       </c>
       <c r="D20">
-        <v>1.077963142732813</v>
+        <v>0.2287907346057523</v>
       </c>
       <c r="E20">
-        <v>0.2752291628212262</v>
+        <v>0.08425538450197223</v>
       </c>
       <c r="F20">
-        <v>13.52330355994678</v>
+        <v>6.171759466535548</v>
       </c>
       <c r="G20">
-        <v>0.0005849452921316212</v>
+        <v>0.002556002592721395</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.94537351507046</v>
+        <v>4.442050894923966</v>
       </c>
       <c r="J20">
-        <v>0.05318217669593039</v>
+        <v>0.07629220740314935</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>11.29391574493698</v>
+        <v>3.949860163497078</v>
       </c>
       <c r="N20">
-        <v>3.324607314921622</v>
+        <v>1.699675862563225</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2082754130145474</v>
+        <v>0.1090075556089545</v>
       </c>
       <c r="D21">
-        <v>1.351169982320926</v>
+        <v>0.2583064988928356</v>
       </c>
       <c r="E21">
-        <v>0.3311465373055853</v>
+        <v>0.09260049699880568</v>
       </c>
       <c r="F21">
-        <v>16.98435306884494</v>
+        <v>6.421198371725552</v>
       </c>
       <c r="G21">
-        <v>0.0005324615807337259</v>
+        <v>0.002540793169103967</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.75413068078521</v>
+        <v>4.660231623928865</v>
       </c>
       <c r="J21">
-        <v>0.05524921773237423</v>
+        <v>0.07677657439141683</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>13.57635993524261</v>
+        <v>4.278884458756977</v>
       </c>
       <c r="N21">
-        <v>3.672980050415305</v>
+        <v>1.808056156124167</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2536466601146827</v>
+        <v>0.1102292796274469</v>
       </c>
       <c r="D22">
-        <v>1.610910324507387</v>
+        <v>0.2777291810027691</v>
       </c>
       <c r="E22">
-        <v>0.3819253477040192</v>
+        <v>0.0980517099489262</v>
       </c>
       <c r="F22">
-        <v>20.29877652301229</v>
+        <v>6.589947963321379</v>
       </c>
       <c r="G22">
-        <v>0.0004868982505106089</v>
+        <v>0.002531171937367235</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.43593403438632</v>
+        <v>4.807017369086196</v>
       </c>
       <c r="J22">
-        <v>0.0565603717461407</v>
+        <v>0.07711159170928994</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.57153447368023</v>
+        <v>4.495454015622784</v>
       </c>
       <c r="N22">
-        <v>3.905278140158714</v>
+        <v>1.879263535868319</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2268581528846738</v>
+        <v>0.1095678370363231</v>
       </c>
       <c r="D23">
-        <v>1.459064908199935</v>
+        <v>0.2673500109582676</v>
       </c>
       <c r="E23">
-        <v>0.3524847522910974</v>
+        <v>0.09514244715224152</v>
       </c>
       <c r="F23">
-        <v>18.36069080142903</v>
+        <v>6.49934737552735</v>
       </c>
       <c r="G23">
-        <v>0.0005130584179190454</v>
+        <v>0.002536277986311444</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.86849982581026</v>
+        <v>4.728282123414175</v>
       </c>
       <c r="J23">
-        <v>0.05586234889280917</v>
+        <v>0.07693111392337215</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.42563338153266</v>
+        <v>4.379722363866534</v>
       </c>
       <c r="N23">
-        <v>3.78085256665176</v>
+        <v>1.841225078038264</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.162576485663493</v>
+        <v>0.1072659449761062</v>
       </c>
       <c r="D24">
-        <v>1.074162782203587</v>
+        <v>0.2283103740179513</v>
       </c>
       <c r="E24">
-        <v>0.274429855902639</v>
+        <v>0.08411891787841341</v>
       </c>
       <c r="F24">
-        <v>13.4755614176587</v>
+        <v>6.167776616481717</v>
       </c>
       <c r="G24">
-        <v>0.0005857124423646637</v>
+        <v>0.002556256613760589</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.90654876677854</v>
+        <v>4.438553557212828</v>
       </c>
       <c r="J24">
-        <v>0.05314774994566207</v>
+        <v>0.07628460578764873</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>11.2608156642996</v>
+        <v>3.944507414680089</v>
       </c>
       <c r="N24">
-        <v>3.318982203405341</v>
+        <v>1.697910888924355</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1193714369985059</v>
+        <v>0.105198784713096</v>
       </c>
       <c r="D25">
-        <v>0.7901953200486673</v>
+        <v>0.1866898467640965</v>
       </c>
       <c r="E25">
-        <v>0.212749703143551</v>
+        <v>0.07220609419841395</v>
       </c>
       <c r="F25">
-        <v>9.958936536460158</v>
+        <v>5.833562558737299</v>
       </c>
       <c r="G25">
-        <v>0.0006464653497154946</v>
+        <v>0.002579196904146021</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>8.038567647984564</v>
+        <v>4.143116904000891</v>
       </c>
       <c r="J25">
-        <v>0.05009943031885555</v>
+        <v>0.07566807101770223</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>8.680124250517025</v>
+        <v>3.481240957586976</v>
       </c>
       <c r="N25">
-        <v>2.836434932429512</v>
+        <v>1.544987647507867</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_116/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_116/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1040162398185203</v>
+        <v>0.09588248745602357</v>
       </c>
       <c r="D2">
-        <v>0.1563759751366547</v>
+        <v>0.6214471049181327</v>
       </c>
       <c r="E2">
-        <v>0.06340302046016433</v>
+        <v>0.1740220143332536</v>
       </c>
       <c r="F2">
-        <v>5.606357340710986</v>
+        <v>7.934451269912387</v>
       </c>
       <c r="G2">
-        <v>0.002597308631189735</v>
+        <v>0.0006864730680808763</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3.939253232387301</v>
+        <v>6.377846450478131</v>
       </c>
       <c r="J2">
-        <v>0.07528521835414992</v>
+        <v>0.04783681453915989</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.144960152179095</v>
+        <v>7.043491037827096</v>
       </c>
       <c r="N2">
-        <v>1.433860535331263</v>
+        <v>2.490489653559649</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1034179608638652</v>
+        <v>0.08268971239742484</v>
       </c>
       <c r="D3">
-        <v>0.1359955768662928</v>
+        <v>0.5197305102594214</v>
       </c>
       <c r="E3">
-        <v>0.05741139501736825</v>
+        <v>0.1498033300539277</v>
       </c>
       <c r="F3">
-        <v>5.463541721084795</v>
+        <v>6.747594459673252</v>
       </c>
       <c r="G3">
-        <v>0.002610357156766684</v>
+        <v>0.0007124796228090206</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.809128486789888</v>
+        <v>5.399526215262711</v>
       </c>
       <c r="J3">
-        <v>0.07507091591273607</v>
+        <v>0.04631948620244941</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.919836584983898</v>
+        <v>6.018424066320335</v>
       </c>
       <c r="N3">
-        <v>1.359489484099612</v>
+        <v>2.260367362466695</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1031480886666429</v>
+        <v>0.07549313606205033</v>
       </c>
       <c r="D4">
-        <v>0.1235491552488384</v>
+        <v>0.461291775206405</v>
       </c>
       <c r="E4">
-        <v>0.05371803391608765</v>
+        <v>0.1355576891955756</v>
       </c>
       <c r="F4">
-        <v>5.38116670960045</v>
+        <v>6.079974278634893</v>
       </c>
       <c r="G4">
-        <v>0.002618754821234998</v>
+        <v>0.0007282336890333083</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3.733041349383683</v>
+        <v>4.84720894231981</v>
       </c>
       <c r="J4">
-        <v>0.0749618873699518</v>
+        <v>0.04540180654812431</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.782910756946421</v>
+        <v>5.416018132584128</v>
       </c>
       <c r="N4">
-        <v>1.314299558801338</v>
+        <v>2.120819032629356</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1030622387928446</v>
+        <v>0.0727411327752634</v>
       </c>
       <c r="D5">
-        <v>0.1184921867767059</v>
+        <v>0.438253348081048</v>
       </c>
       <c r="E5">
-        <v>0.05220908582172612</v>
+        <v>0.1298704064723886</v>
       </c>
       <c r="F5">
-        <v>5.348907783197404</v>
+        <v>5.820066270282979</v>
       </c>
       <c r="G5">
-        <v>0.002622274519818062</v>
+        <v>0.0007346350725632235</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.702971898097275</v>
+        <v>4.631724794816677</v>
       </c>
       <c r="J5">
-        <v>0.07492317334317278</v>
+        <v>0.04503205812425648</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.727430839532161</v>
+        <v>5.175781630402014</v>
       </c>
       <c r="N5">
-        <v>1.296005556872615</v>
+        <v>2.064343392251033</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1030494295262372</v>
+        <v>0.07229393878598955</v>
       </c>
       <c r="D6">
-        <v>0.1176533366563604</v>
+        <v>0.4344689990022914</v>
       </c>
       <c r="E6">
-        <v>0.05195828554291282</v>
+        <v>0.1289322115204357</v>
       </c>
       <c r="F6">
-        <v>5.343629538100799</v>
+        <v>5.777564032050833</v>
       </c>
       <c r="G6">
-        <v>0.002622864873489694</v>
+        <v>0.0007356977627208715</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3.69803484748968</v>
+        <v>4.596460007461474</v>
       </c>
       <c r="J6">
-        <v>0.07491709144460046</v>
+        <v>0.04497093387433893</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.718237430210564</v>
+        <v>5.136169960517805</v>
       </c>
       <c r="N6">
-        <v>1.292975236356909</v>
+        <v>2.054988019632532</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1031468336836383</v>
+        <v>0.0754553428764666</v>
       </c>
       <c r="D7">
-        <v>0.1234808966867718</v>
+        <v>0.4609781939348636</v>
       </c>
       <c r="E7">
-        <v>0.05369769970002025</v>
+        <v>0.1354805550840226</v>
       </c>
       <c r="F7">
-        <v>5.380726386917217</v>
+        <v>6.076423513176934</v>
       </c>
       <c r="G7">
-        <v>0.002618801893214469</v>
+        <v>0.0007283200553401986</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3.732632057500865</v>
+        <v>4.844266941977054</v>
       </c>
       <c r="J7">
-        <v>0.07496134205643656</v>
+        <v>0.04539680211305708</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.782161257088944</v>
+        <v>5.412758711146211</v>
       </c>
       <c r="N7">
-        <v>1.31405234578483</v>
+        <v>2.120055856078579</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1037894870724472</v>
+        <v>0.09111356867748555</v>
       </c>
       <c r="D8">
-        <v>0.1493337245208011</v>
+        <v>0.5853785971338823</v>
       </c>
       <c r="E8">
-        <v>0.06133996911027495</v>
+        <v>0.1655143361146934</v>
       </c>
       <c r="F8">
-        <v>5.55599512699132</v>
+        <v>7.510305764210358</v>
       </c>
       <c r="G8">
-        <v>0.002601728029317909</v>
+        <v>0.0006955090745607083</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.893582370239926</v>
+        <v>6.028692615553382</v>
       </c>
       <c r="J8">
-        <v>0.07520667243097279</v>
+        <v>0.04731121482795686</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3.067062134008268</v>
+        <v>6.683377237488372</v>
       </c>
       <c r="N8">
-        <v>1.408120137765792</v>
+        <v>2.410749541548995</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1058411932937702</v>
+        <v>0.1321473777948086</v>
       </c>
       <c r="D9">
-        <v>0.200652475904775</v>
+        <v>0.8771152116129883</v>
       </c>
       <c r="E9">
-        <v>0.07622305992686762</v>
+        <v>0.2320620831674916</v>
       </c>
       <c r="F9">
-        <v>5.94312752309321</v>
+        <v>11.02310137678418</v>
       </c>
       <c r="G9">
-        <v>0.002571281448740456</v>
+        <v>0.0006270947007357111</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4.240445675180183</v>
+        <v>8.908356146675942</v>
       </c>
       <c r="J9">
-        <v>0.07586481423160052</v>
+        <v>0.05113375790767805</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.636512385282828</v>
+        <v>9.492796865343706</v>
       </c>
       <c r="N9">
-        <v>1.596274709011055</v>
+        <v>2.997294085354099</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1078571353104962</v>
+        <v>0.1766561032794414</v>
       </c>
       <c r="D10">
-        <v>0.2388637426395235</v>
+        <v>1.161564102679677</v>
       </c>
       <c r="E10">
-        <v>0.08711209890235239</v>
+        <v>0.2926549513807544</v>
       </c>
       <c r="F10">
-        <v>6.255866308602549</v>
+        <v>14.57688724956631</v>
       </c>
       <c r="G10">
-        <v>0.002550725738860195</v>
+        <v>0.0005683397718169246</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.515798889556351</v>
+        <v>11.80155073975882</v>
       </c>
       <c r="J10">
-        <v>0.07645379713208911</v>
+        <v>0.05389872400065698</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.062124323232496</v>
+        <v>12.01261552198022</v>
       </c>
       <c r="N10">
-        <v>1.736680449797461</v>
+        <v>3.44288249224627</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1088905950145147</v>
+        <v>0.2047189533864611</v>
       </c>
       <c r="D11">
-        <v>0.2563864584628277</v>
+        <v>1.33024666678827</v>
       </c>
       <c r="E11">
-        <v>0.09205994204373269</v>
+        <v>0.3269637826686917</v>
       </c>
       <c r="F11">
-        <v>6.404705072715899</v>
+        <v>16.71781075723533</v>
       </c>
       <c r="G11">
-        <v>0.002541760059101651</v>
+        <v>0.0005363064607667037</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.64585249908842</v>
+        <v>13.53817670803474</v>
       </c>
       <c r="J11">
-        <v>0.07674410726816916</v>
+        <v>0.05511787941667734</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>4.257476107315995</v>
+        <v>13.40827517799977</v>
       </c>
       <c r="N11">
-        <v>1.801011256919026</v>
+        <v>3.650147167678369</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1092991808392298</v>
+        <v>0.2175956616570005</v>
       </c>
       <c r="D12">
-        <v>0.2630444509061931</v>
+        <v>1.405574411623007</v>
       </c>
       <c r="E12">
-        <v>0.09393307646472238</v>
+        <v>0.3419530739379582</v>
       </c>
       <c r="F12">
-        <v>6.46204668632015</v>
+        <v>17.67804404343354</v>
       </c>
       <c r="G12">
-        <v>0.002538419730409913</v>
+        <v>0.0005225903379585317</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.695817855553088</v>
+        <v>14.31593532359878</v>
       </c>
       <c r="J12">
-        <v>0.07685721156074976</v>
+        <v>0.05557149075450951</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4.331713590831072</v>
+        <v>14.00824819545375</v>
       </c>
       <c r="N12">
-        <v>1.82543632773934</v>
+        <v>3.729427986198289</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1092104097952529</v>
+        <v>0.2146848557426893</v>
       </c>
       <c r="D13">
-        <v>0.2616094930231156</v>
+        <v>1.388648062154743</v>
       </c>
       <c r="E13">
-        <v>0.0935296809849433</v>
+        <v>0.3386014573261633</v>
       </c>
       <c r="F13">
-        <v>6.449653012126191</v>
+        <v>17.46213851311745</v>
       </c>
       <c r="G13">
-        <v>0.00253913670349839</v>
+        <v>0.0005256421756592105</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.685024589697548</v>
+        <v>14.14111226571745</v>
       </c>
       <c r="J13">
-        <v>0.07683271230224875</v>
+        <v>0.05547414902425629</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4.315713370549389</v>
+        <v>13.87467675182342</v>
       </c>
       <c r="N13">
-        <v>1.820173113934743</v>
+        <v>3.712316186035196</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1089238612322561</v>
+        <v>0.2057208019358683</v>
       </c>
       <c r="D14">
-        <v>0.2569337503415738</v>
+        <v>1.336150180711968</v>
       </c>
       <c r="E14">
-        <v>0.09221405429616425</v>
+        <v>0.3281454846329623</v>
       </c>
       <c r="F14">
-        <v>6.409402766728533</v>
+        <v>16.79299965298617</v>
       </c>
       <c r="G14">
-        <v>0.002541484154027273</v>
+        <v>0.0005352188616762467</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.649948650532593</v>
+        <v>13.59910026833293</v>
       </c>
       <c r="J14">
-        <v>0.07675334916805099</v>
+        <v>0.05515536119839481</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4.263578348052619</v>
+        <v>13.45581219906748</v>
       </c>
       <c r="N14">
-        <v>1.803019441096126</v>
+        <v>3.656652998864757</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1087506018784978</v>
+        <v>0.2005827117679928</v>
       </c>
       <c r="D15">
-        <v>0.2540727272294419</v>
+        <v>1.305793076851444</v>
       </c>
       <c r="E15">
-        <v>0.09140813827539773</v>
+        <v>0.322055853595387</v>
       </c>
       <c r="F15">
-        <v>6.384876949166767</v>
+        <v>16.40650961037966</v>
       </c>
       <c r="G15">
-        <v>0.002542929150733682</v>
+        <v>0.0005408348934573535</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.628557817467566</v>
+        <v>13.28589363870037</v>
       </c>
       <c r="J15">
-        <v>0.07670514837393938</v>
+        <v>0.05495902125842633</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.23167862777774</v>
+        <v>13.21042888217596</v>
       </c>
       <c r="N15">
-        <v>1.792520658006282</v>
+        <v>3.622665063978872</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1077919807532339</v>
+        <v>0.1750471692280087</v>
       </c>
       <c r="D16">
-        <v>0.237721612973786</v>
+        <v>1.151679297507286</v>
       </c>
       <c r="E16">
-        <v>0.08678865798827218</v>
+        <v>0.2906099229320276</v>
       </c>
       <c r="F16">
-        <v>6.246274517817483</v>
+        <v>14.45200336558281</v>
       </c>
       <c r="G16">
-        <v>0.002551319366372429</v>
+        <v>0.0005702768022619598</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.507398375940568</v>
+        <v>11.70012490629961</v>
       </c>
       <c r="J16">
-        <v>0.07643527091642</v>
+        <v>0.05381801682839793</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.049393622308571</v>
+        <v>11.92857656611582</v>
       </c>
       <c r="N16">
-        <v>1.732485380812335</v>
+        <v>3.429440801384771</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1072340592569816</v>
+        <v>0.1618473237747367</v>
       </c>
       <c r="D17">
-        <v>0.2277282966244059</v>
+        <v>1.069578443304778</v>
       </c>
       <c r="E17">
-        <v>0.08395352505558407</v>
+        <v>0.2734648092339214</v>
       </c>
       <c r="F17">
-        <v>6.162953892550092</v>
+        <v>13.41798958425659</v>
       </c>
       <c r="G17">
-        <v>0.002556564721799951</v>
+        <v>0.0005866393094074813</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.434318095053129</v>
+        <v>10.85972696103903</v>
       </c>
       <c r="J17">
-        <v>0.07627540764292462</v>
+        <v>0.05310600376912333</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>3.938021338983305</v>
+        <v>11.22083749612412</v>
       </c>
       <c r="N17">
-        <v>1.695772150451774</v>
+        <v>3.312167786759971</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1069240824781588</v>
+        <v>0.1548963415670528</v>
       </c>
       <c r="D18">
-        <v>0.2219934571928945</v>
+        <v>1.02556723251837</v>
       </c>
       <c r="E18">
-        <v>0.08232228215242543</v>
+        <v>0.2641520220547164</v>
       </c>
       <c r="F18">
-        <v>6.115646549049416</v>
+        <v>12.86638848925463</v>
       </c>
       <c r="G18">
-        <v>0.002559618007154014</v>
+        <v>0.0005956201990758483</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.392733782808733</v>
+        <v>10.41093010474071</v>
       </c>
       <c r="J18">
-        <v>0.07618556781029895</v>
+        <v>0.05269303812593762</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>3.874125856244007</v>
+        <v>10.83425319468157</v>
       </c>
       <c r="N18">
-        <v>1.674699020272158</v>
+        <v>3.24513493106295</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1068209911244651</v>
+        <v>0.1526358554327203</v>
       </c>
       <c r="D19">
-        <v>0.2200539103855306</v>
+        <v>1.011129396012507</v>
       </c>
       <c r="E19">
-        <v>0.08176986793256447</v>
+        <v>0.2610776928298435</v>
       </c>
       <c r="F19">
-        <v>6.099733945331764</v>
+        <v>12.68589631619193</v>
       </c>
       <c r="G19">
-        <v>0.002560658049425804</v>
+        <v>0.0005985996481381317</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.378730435754477</v>
+        <v>10.26399855749244</v>
       </c>
       <c r="J19">
-        <v>0.07615551331267412</v>
+        <v>0.05255271787450866</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>3.852519568866398</v>
+        <v>10.70633447713865</v>
       </c>
       <c r="N19">
-        <v>1.667571518578313</v>
+        <v>3.222506806783258</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1072923167090067</v>
+        <v>0.1631816742432051</v>
       </c>
       <c r="D20">
-        <v>0.2287907346057523</v>
+        <v>1.077963142732614</v>
       </c>
       <c r="E20">
-        <v>0.08425538450197223</v>
+        <v>0.2752291628212191</v>
       </c>
       <c r="F20">
-        <v>6.171759466535548</v>
+        <v>13.52330355994707</v>
       </c>
       <c r="G20">
-        <v>0.002556002592721395</v>
+        <v>0.0005849452921209631</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.442050894923966</v>
+        <v>10.94537351507071</v>
       </c>
       <c r="J20">
-        <v>0.07629220740314935</v>
+        <v>0.05318217669582026</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>3.949860163497078</v>
+        <v>11.29391574493715</v>
       </c>
       <c r="N20">
-        <v>1.699675862563225</v>
+        <v>3.324607314921622</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1090075556089545</v>
+        <v>0.2082754130150448</v>
       </c>
       <c r="D21">
-        <v>0.2583064988928356</v>
+        <v>1.351169982320812</v>
       </c>
       <c r="E21">
-        <v>0.09260049699880568</v>
+        <v>0.3311465373055356</v>
       </c>
       <c r="F21">
-        <v>6.421198371725552</v>
+        <v>16.984353068845</v>
       </c>
       <c r="G21">
-        <v>0.002540793169103967</v>
+        <v>0.0005324615808873036</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.660231623928865</v>
+        <v>13.75413068078518</v>
       </c>
       <c r="J21">
-        <v>0.07677657439141683</v>
+        <v>0.05524921773227476</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>4.278884458756977</v>
+        <v>13.57635993524255</v>
       </c>
       <c r="N21">
-        <v>1.808056156124167</v>
+        <v>3.672980050415305</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1102292796274469</v>
+        <v>0.2536466601149101</v>
       </c>
       <c r="D22">
-        <v>0.2777291810027691</v>
+        <v>1.610910324507074</v>
       </c>
       <c r="E22">
-        <v>0.0980517099489262</v>
+        <v>0.3819253477040334</v>
       </c>
       <c r="F22">
-        <v>6.589947963321379</v>
+        <v>20.29877652301252</v>
       </c>
       <c r="G22">
-        <v>0.002531171937367235</v>
+        <v>0.0004868982505681352</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.807017369086196</v>
+        <v>16.43593403438658</v>
       </c>
       <c r="J22">
-        <v>0.07711159170928994</v>
+        <v>0.05656037174592399</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>4.495454015622784</v>
+        <v>15.57153447368037</v>
       </c>
       <c r="N22">
-        <v>1.879263535868319</v>
+        <v>3.905278140158856</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1095678370363231</v>
+        <v>0.2268581528843185</v>
       </c>
       <c r="D23">
-        <v>0.2673500109582676</v>
+        <v>1.459064908199906</v>
       </c>
       <c r="E23">
-        <v>0.09514244715224152</v>
+        <v>0.3524847522911045</v>
       </c>
       <c r="F23">
-        <v>6.49934737552735</v>
+        <v>18.36069080142897</v>
       </c>
       <c r="G23">
-        <v>0.002536277986311444</v>
+        <v>0.0005130584177681297</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.728282123414175</v>
+        <v>14.8684998258102</v>
       </c>
       <c r="J23">
-        <v>0.07693111392337215</v>
+        <v>0.05586234889292641</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>4.379722363866534</v>
+        <v>14.42563338153266</v>
       </c>
       <c r="N23">
-        <v>1.841225078038264</v>
+        <v>3.78085256665176</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1072659449761062</v>
+        <v>0.1625764856640615</v>
       </c>
       <c r="D24">
-        <v>0.2283103740179513</v>
+        <v>1.074162782203388</v>
       </c>
       <c r="E24">
-        <v>0.08411891787841341</v>
+        <v>0.2744298559026319</v>
       </c>
       <c r="F24">
-        <v>6.167776616481717</v>
+        <v>13.4755614176583</v>
       </c>
       <c r="G24">
-        <v>0.002556256613760589</v>
+        <v>0.0005857124422583748</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.438553557212828</v>
+        <v>10.90654876677829</v>
       </c>
       <c r="J24">
-        <v>0.07628460578764873</v>
+        <v>0.05314774994571891</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>3.944507414680089</v>
+        <v>11.2608156642994</v>
       </c>
       <c r="N24">
-        <v>1.697910888924355</v>
+        <v>3.318982203405341</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.105198784713096</v>
+        <v>0.1193714369981365</v>
       </c>
       <c r="D25">
-        <v>0.1866898467640965</v>
+        <v>0.7901953200486673</v>
       </c>
       <c r="E25">
-        <v>0.07220609419841395</v>
+        <v>0.2127497031435013</v>
       </c>
       <c r="F25">
-        <v>5.833562558737299</v>
+        <v>9.958936536460044</v>
       </c>
       <c r="G25">
-        <v>0.002579196904146021</v>
+        <v>0.000646465349923544</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>4.143116904000891</v>
+        <v>8.038567647984479</v>
       </c>
       <c r="J25">
-        <v>0.07566807101770223</v>
+        <v>0.05009943031881647</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.481240957586976</v>
+        <v>8.680124250517025</v>
       </c>
       <c r="N25">
-        <v>1.544987647507867</v>
+        <v>2.836434932429626</v>
       </c>
       <c r="O25">
         <v>0</v>
